--- a/medicine/Handicap/Fédération_des_aveugles_et_handicapés_visuels_de_France/Fédération_des_aveugles_et_handicapés_visuels_de_France.xlsx
+++ b/medicine/Handicap/Fédération_des_aveugles_et_handicapés_visuels_de_France/Fédération_des_aveugles_et_handicapés_visuels_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_des_aveugles_et_handicap%C3%A9s_visuels_de_France</t>
+          <t>Fédération_des_aveugles_et_handicapés_visuels_de_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fondée en 1917[1], la Fédération des aveugles et handicapés visuels de France, souvent désignée par l'expression « Fédération des aveugles de France » ou encore par le sigle FAF, est une association reconnue d'utilité publique qui œuvre au quotidien pour l'amélioration des conditions de vie des personnes aveugles ou amblyopes de tous âges.
-Reconnue d’utilité publique depuis 1921[2], la Fédération des Aveugles de France qui est une association loi de 1901[3], ne perçoit pas de subvention de l’État et est entièrement financée grâce à la générosité de ses donateurs et à la solidarité d’un certain nombre de grands partenaires.
-Présente dans toutes les régions de France, la Fédération des Aveugles de France compte 50 associations membres[4] au service de près de 10 000 adhérents et usagers. 
-La Fédération des aveugles de France a inauguré son nouveau siège[5], sis au 6 rue Gager-Gabillot dans le 15e arrondissement de Paris, en présence de Madame Marie-Arlette Carlotti, le mardi 22 octobre 2013.
-La Fédération des aveugles de France favorise le travail en réseau et s’implique tant au niveau national qu’international au travers de ses partenariats. La Fédération est en effet membre fondateur de l’Institut de la vision (la Fédération des aveugles et handicapés visuels de France est l’association française de référence pour le financement de la recherche en ophtalmologie), de l’association BrailleNet, mais aussi de la Confédération française pour la promotion sociale des aveugles et amblyopes (CFPSAA[6] qui regroupe les grandes associations typhlophiles françaises, et du Comité National Coordination Action Handicap (CCAH)[7]. Soucieuse de rester ouverte sur l’extérieur et consciente de l’importance et de l’intérêt des bonnes pratiques à l’étranger, la Fédération des aveugles et handicapés visuels de France est membre de l’Union Francophone des Aveugles (UFA), du Conseil Français des personnes Handicapées pour les questions Européennes (CFHE)[8], de l’Union Européenne des Aveugles (UEA)[9] et de l’Union Mondiale des Aveugles (UMA)[10] Toutes ces instances permettent les échanges et une meilleure coordination des actions visant à porter la parole des personnes déficientes visuelles en France et dans le monde. 
-Elle a ouvert en 2009 son centre de formation « Access Formation » qui dispense notamment des formations qualifiantes et diplômantes pour les professionnels de la rééducation au bénéfice des personnes déficientes visuelles (psychomotriciens, ergothérapeutes, orthoptistes, instructeurs de locomotion, etc). Son service emploi[11] accompagne les personnes déficientes visuelles dans leur parcours d'insertion professionnelle, et les entreprises dans leur démarche de recrutement ou de maintien en poste des personnes déficientes visuelles.
-En 2012, l’Institut Randstad[12] et la Fédération des aveugles et handicapés visuels de France lancent le premier guide d’accueil d’une personne déficiente visuelle[13] (Accueillir une personne déficiente visuelle : Guide à l’usage du personnel des hôpitaux et maisons de retraite). Deux autres guides ont été publiés par la suite : Accueillir une personne déficiente visuelle dans un lieu recevant du public[14] et Travailler ensemble, guide du savoir-être avec un collègue déficient visuel[15].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondée en 1917, la Fédération des aveugles et handicapés visuels de France, souvent désignée par l'expression « Fédération des aveugles de France » ou encore par le sigle FAF, est une association reconnue d'utilité publique qui œuvre au quotidien pour l'amélioration des conditions de vie des personnes aveugles ou amblyopes de tous âges.
+Reconnue d’utilité publique depuis 1921, la Fédération des Aveugles de France qui est une association loi de 1901, ne perçoit pas de subvention de l’État et est entièrement financée grâce à la générosité de ses donateurs et à la solidarité d’un certain nombre de grands partenaires.
+Présente dans toutes les régions de France, la Fédération des Aveugles de France compte 50 associations membres au service de près de 10 000 adhérents et usagers. 
+La Fédération des aveugles de France a inauguré son nouveau siège, sis au 6 rue Gager-Gabillot dans le 15e arrondissement de Paris, en présence de Madame Marie-Arlette Carlotti, le mardi 22 octobre 2013.
+La Fédération des aveugles de France favorise le travail en réseau et s’implique tant au niveau national qu’international au travers de ses partenariats. La Fédération est en effet membre fondateur de l’Institut de la vision (la Fédération des aveugles et handicapés visuels de France est l’association française de référence pour le financement de la recherche en ophtalmologie), de l’association BrailleNet, mais aussi de la Confédération française pour la promotion sociale des aveugles et amblyopes (CFPSAA qui regroupe les grandes associations typhlophiles françaises, et du Comité National Coordination Action Handicap (CCAH). Soucieuse de rester ouverte sur l’extérieur et consciente de l’importance et de l’intérêt des bonnes pratiques à l’étranger, la Fédération des aveugles et handicapés visuels de France est membre de l’Union Francophone des Aveugles (UFA), du Conseil Français des personnes Handicapées pour les questions Européennes (CFHE), de l’Union Européenne des Aveugles (UEA) et de l’Union Mondiale des Aveugles (UMA) Toutes ces instances permettent les échanges et une meilleure coordination des actions visant à porter la parole des personnes déficientes visuelles en France et dans le monde. 
+Elle a ouvert en 2009 son centre de formation « Access Formation » qui dispense notamment des formations qualifiantes et diplômantes pour les professionnels de la rééducation au bénéfice des personnes déficientes visuelles (psychomotriciens, ergothérapeutes, orthoptistes, instructeurs de locomotion, etc). Son service emploi accompagne les personnes déficientes visuelles dans leur parcours d'insertion professionnelle, et les entreprises dans leur démarche de recrutement ou de maintien en poste des personnes déficientes visuelles.
+En 2012, l’Institut Randstad et la Fédération des aveugles et handicapés visuels de France lancent le premier guide d’accueil d’une personne déficiente visuelle (Accueillir une personne déficiente visuelle : Guide à l’usage du personnel des hôpitaux et maisons de retraite). Deux autres guides ont été publiés par la suite : Accueillir une personne déficiente visuelle dans un lieu recevant du public et Travailler ensemble, guide du savoir-être avec un collègue déficient visuel.
 Ses autres missions sont la défense des droits des personnes Aveugles et Amblyopes en France, l’aide à l'insertion des enfants en milieu ordinaire, l'accès à la culture, l'accessibilité numérique, les conseils et diagnostics en accessibilité à la voirie, au cadre bâti et aux transports, la gestion de services et d’établissements, de la petite enfance au troisième âge : SAFEP, SAAAIS, SSR-DV, SAVS, SAMSAH, EHPAD, etc.
 En 2017, la Fédération des Aveugles de France a célébré son centenaire en organisant son événement phare « Les Entretiens des Aveugles de France », qui a eu lieu les 26 et 27 janvier 2017, à l'UNESCO, à Paris. Cette manifestation d’ampleur nationale portant sur les thématiques relatives à l’Éducation, la Formation et l’Emploi des personnes déficientes visuelles s’est orchestrée autour d’interventions et de tables rondes portées par des personnalités françaises et internationales : chercheurs, experts, philosophes, qui ont dévoilé leurs retours d’expériences et mis en perspective les initiatives et projets intéressants menés actuellement pour favoriser une plus grande inclusion sociale et économique des personnes déficientes visuelles.
 En octobre 2018, la Fédération des Aveugles de France lance le site savoiraider.org, une plateforme qui a pour objectif de développer des séquences d’informations et de conseils en ligne afin de permettre aux proches de mieux comprendre les conséquences de la cécité et de la malvoyance chez leurs ainés, pour mieux les accompagner dans leur quotidien.
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_des_aveugles_et_handicap%C3%A9s_visuels_de_France</t>
+          <t>Fédération_des_aveugles_et_handicapés_visuels_de_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,12 +532,14 @@
           <t>Actions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 2012, l'association illustre son calendrier 2012 par des images en relation avec la campagne présidentielle afin de sensibiliser l'opinion publique[16].
-En 2013, La Fédération lance sa grande campagne de sensibilisation en faveur de l’accès à l’emploi des personnes handicapées visuelles : Embauchez un Aveugle[17].
-En 2014, la Fédération des aveugles et handicapés visuels de France réédite un calendrier sur la thématique : Changez de point de vue : Embauchez un aveugle ![18].
-En 2017, la Fédération s'implique dans la controverse française sur le langage épicène en demandant à ce que les formes contractées (points médians ou autres) ne soient pas utilisées, car peu ou pas lisibles par les lecteurs d'écrans utilisés par ses adhérents[19].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 2012, l'association illustre son calendrier 2012 par des images en relation avec la campagne présidentielle afin de sensibiliser l'opinion publique.
+En 2013, La Fédération lance sa grande campagne de sensibilisation en faveur de l’accès à l’emploi des personnes handicapées visuelles : Embauchez un Aveugle.
+En 2014, la Fédération des aveugles et handicapés visuels de France réédite un calendrier sur la thématique : Changez de point de vue : Embauchez un aveugle !.
+En 2017, la Fédération s'implique dans la controverse française sur le langage épicène en demandant à ce que les formes contractées (points médians ou autres) ne soient pas utilisées, car peu ou pas lisibles par les lecteurs d'écrans utilisés par ses adhérents.</t>
         </is>
       </c>
     </row>
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_des_aveugles_et_handicap%C3%A9s_visuels_de_France</t>
+          <t>Fédération_des_aveugles_et_handicapés_visuels_de_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Liste des présidents de la Fédération des aveugles de France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1917-1926 : Octave Berger (Fondateur)
 1926-1929 : Marcel Bloch
@@ -566,7 +582,7 @@
 1986-1991 : Raymond Hardy
 1991-1998 : Marcel Herb
 1998-2008 : Julien Aimi
-2008-2021 : Vincent Michel[20],[21]
+2008-2021 : Vincent Michel,
 2021-... : Anne Renoud</t>
         </is>
       </c>
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_des_aveugles_et_handicap%C3%A9s_visuels_de_France</t>
+          <t>Fédération_des_aveugles_et_handicapés_visuels_de_France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,7 +611,9 @@
           <t>Le comité scientifique de la Fédération des aveugles de France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>M. le Professeur José-Alain Sahel, Président
 Mme le Professeur Hélène Dollfus
